--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394">
   <si>
     <t>Step No</t>
   </si>
@@ -810,48 +810,6 @@
   </si>
   <si>
     <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
   </si>
   <si>
     <t>SELF_LASTPAGE</t>
@@ -1263,7 +1221,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,18 +1247,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,22 +1292,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1338,7 +1317,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,93 +1384,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1464,7 +1411,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,7 +1459,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,25 +1525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,61 +1543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,19 +1555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,37 +1585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,36 +1644,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1747,6 +1668,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1762,17 +1698,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1794,10 +1726,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,134 +1762,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1952,11 +1899,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2324,10 +2266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:H130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2603,10 +2545,14 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
@@ -2620,14 +2566,14 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -2641,7 +2587,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>39</v>
@@ -2656,20 +2602,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -2683,14 +2631,10 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8">
-        <v>5</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
@@ -2698,22 +2642,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -2722,15 +2666,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E19" s="8">
-        <v>2</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+        <v>1000</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
@@ -2738,22 +2690,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -2762,22 +2712,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1000</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -2792,7 +2740,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
@@ -2808,20 +2756,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="E23" s="8">
+        <v>10001</v>
+      </c>
       <c r="F23" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -2836,14 +2786,14 @@
         <v>20</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -2852,22 +2802,18 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>59</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="8">
-        <v>10001</v>
+        <v>5</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -2876,21 +2822,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
@@ -2898,18 +2842,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -2918,19 +2866,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
@@ -2944,16 +2896,16 @@
         <v>20</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -2968,16 +2920,16 @@
         <v>20</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -2992,16 +2944,16 @@
         <v>20</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -3010,22 +2962,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -3034,22 +2984,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H33" s="8"/>
     </row>
@@ -3058,20 +3006,18 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>5</v>
+      </c>
       <c r="F34" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -3080,45 +3026,49 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7">
-        <v>5</v>
-      </c>
+      <c r="D36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -3128,38 +3078,40 @@
         <v>20</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F38" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -3167,639 +3119,625 @@
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="7"/>
+      <c r="B39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="8"/>
+      <c r="D40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="7">
+        <v>9876543210</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="8">
-        <v>9876543210</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="D44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="B45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8">
+        <v>4</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="8"/>
+      <c r="C46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7">
-        <v>4</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="7"/>
+      <c r="B47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="B48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="8"/>
+      <c r="D50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="7"/>
+      <c r="C51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H52" s="8"/>
+      <c r="D52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="7"/>
+      <c r="B53" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H54" s="8"/>
+      <c r="D54" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="7">
+        <v>9789123456</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H55" s="7"/>
+      <c r="D55" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="8">
-        <v>9789123456</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H56" s="8"/>
+      <c r="D56" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H57" s="7"/>
+      <c r="B57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8">
+        <v>4</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" s="8"/>
+      <c r="D58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8">
         <v>4</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8">
+        <v>5</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7">
-        <v>4</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="8">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="D62" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7">
-        <v>5</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8">
+        <v>3</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H64" s="8"/>
+      <c r="B64" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H64" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7">
-        <v>3</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8">
+        <v>4</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H66" s="8">
-        <v>6</v>
-      </c>
+      <c r="B66" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7">
+      <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7">
-        <v>4</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8">
+        <v>2</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>155</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -3808,15 +3746,23 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8">
-        <v>2</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
@@ -3824,16 +3770,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="F70" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -3848,21 +3800,21 @@
         <v>20</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -3872,65 +3824,59 @@
         <v>15</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="E73" s="8">
+        <v>1235647899</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
@@ -3938,22 +3884,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="8">
-        <v>1235647899</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -3962,17 +3906,23 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="E76" s="7">
+        <v>97890456789</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
@@ -3986,81 +3936,81 @@
         <v>20</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="8">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E78" s="7">
-        <v>97890456789</v>
+        <v>1230</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1550</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H79" s="8"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="8">
-        <v>79</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C80" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" s="7">
-        <v>1230</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E80" s="7"/>
       <c r="F80" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>191</v>
@@ -4072,22 +4022,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E81" s="8">
-        <v>1550</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H81" s="8"/>
     </row>
@@ -4102,14 +4050,14 @@
         <v>20</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -4124,11 +4072,11 @@
         <v>20</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>198</v>
@@ -4136,51 +4084,49 @@
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="8">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8">
+        <v>4</v>
+      </c>
       <c r="F85" s="8" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="8">
+    <row r="86" s="4" customFormat="1" spans="1:8">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -4190,18 +4136,14 @@
         <v>15</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="E86" s="7"/>
-      <c r="F86" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" s="4" customFormat="1" spans="1:8">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -4213,12 +4155,8 @@
       <c r="E87" s="8">
         <v>4</v>
       </c>
-      <c r="F87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
     <row r="88" s="4" customFormat="1" spans="1:8">
@@ -4229,10 +4167,10 @@
         <v>19</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -4249,32 +4187,36 @@
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
     </row>
     <row r="90" s="4" customFormat="1" spans="1:8">
-      <c r="A90" s="8">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
+      <c r="F90" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="H90" s="7"/>
     </row>
     <row r="91" s="4" customFormat="1" spans="1:8">
-      <c r="A91" s="7">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -4283,33 +4225,31 @@
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
     <row r="92" s="4" customFormat="1" spans="1:8">
-      <c r="A92" s="8">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H92" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="H92" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="93" s="4" customFormat="1" spans="1:8">
       <c r="A93" s="8">
@@ -4321,7 +4261,7 @@
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -4331,21 +4271,23 @@
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H94" s="8">
-        <v>6</v>
-      </c>
+      <c r="B94" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H94" s="7"/>
     </row>
     <row r="95" s="4" customFormat="1" spans="1:8">
       <c r="A95" s="8">
@@ -4359,34 +4301,36 @@
       <c r="E95" s="8">
         <v>4</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
+      <c r="F95" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" s="8"/>
     </row>
     <row r="96" s="4" customFormat="1" spans="1:8">
-      <c r="A96" s="8">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H96" s="8"/>
+      <c r="C96" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" s="4" customFormat="1" spans="1:8">
-      <c r="A97" s="7">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -4395,157 +4339,159 @@
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8">
-        <v>4</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
       <c r="H97" s="8"/>
     </row>
     <row r="98" s="4" customFormat="1" spans="1:8">
-      <c r="A98" s="8">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H98" s="8"/>
+      <c r="C98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="7"/>
     </row>
     <row r="99" s="4" customFormat="1" spans="1:8">
       <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7">
-        <v>3</v>
-      </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8">
+        <v>2</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
       <c r="H99" s="8"/>
     </row>
     <row r="100" s="4" customFormat="1" spans="1:8">
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>19</v>
+      <c r="B100" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E100" s="7"/>
+      <c r="D100" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="F100" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="H100" s="7"/>
     </row>
     <row r="101" s="4" customFormat="1" spans="1:8">
       <c r="A101" s="8">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:8">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="1:8">
+      <c r="A103" s="8">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" s="4" customFormat="1" spans="1:8">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="7">
-        <v>2</v>
-      </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="8"/>
-    </row>
-    <row r="102" s="4" customFormat="1" spans="1:8">
-      <c r="A102" s="8">
-        <v>101</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H102" s="8"/>
-    </row>
-    <row r="103" s="4" customFormat="1" spans="1:8">
-      <c r="A103" s="7">
-        <v>102</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H103" s="8"/>
-    </row>
-    <row r="104" s="4" customFormat="1" spans="1:8">
-      <c r="A104" s="8">
-        <v>103</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7">
+        <v>4</v>
+      </c>
       <c r="F104" s="7" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H104" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" s="4" customFormat="1" spans="1:8">
       <c r="A105" s="8">
@@ -4555,18 +4501,14 @@
         <v>19</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>215</v>
+        <v>20</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="E105" s="8"/>
-      <c r="F105" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
       <c r="H105" s="8"/>
     </row>
     <row r="106" s="4" customFormat="1" spans="1:8">
@@ -4579,93 +4521,99 @@
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7">
-        <v>4</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
     </row>
     <row r="107" s="4" customFormat="1" spans="1:8">
       <c r="A107" s="8">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>218</v>
+      <c r="D107" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+      <c r="F107" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="H107" s="8"/>
     </row>
     <row r="108" s="4" customFormat="1" spans="1:8">
-      <c r="A108" s="8">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8">
-        <v>5</v>
-      </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
+      <c r="B108" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H108" s="7"/>
     </row>
     <row r="109" s="4" customFormat="1" spans="1:8">
-      <c r="A109" s="7">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="12" t="s">
-        <v>219</v>
+      <c r="D109" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="H109" s="8"/>
     </row>
     <row r="110" s="4" customFormat="1" spans="1:8">
-      <c r="A110" s="8">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H110" s="8"/>
+      <c r="C110" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H110" s="7"/>
     </row>
     <row r="111" s="4" customFormat="1" spans="1:8">
       <c r="A111" s="8">
@@ -4677,12 +4625,12 @@
       <c r="C111" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D111" s="12" t="s">
-        <v>222</v>
+      <c r="D111" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>191</v>
@@ -4694,236 +4642,232 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H112" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" s="7"/>
     </row>
     <row r="113" s="4" customFormat="1" spans="1:8">
       <c r="A113" s="8">
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="12" t="s">
-        <v>225</v>
+      <c r="D113" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="H113" s="8"/>
     </row>
     <row r="114" s="4" customFormat="1" spans="1:8">
-      <c r="A114" s="8">
+      <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G114" s="8" t="s">
+      <c r="C114" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H114" s="8"/>
+      <c r="H114" s="7"/>
     </row>
     <row r="115" s="4" customFormat="1" spans="1:8">
-      <c r="A115" s="7">
+      <c r="A115" s="8">
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E115" s="8"/>
+      <c r="D115" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="F115" s="8" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="H115" s="8"/>
     </row>
     <row r="116" s="4" customFormat="1" spans="1:8">
-      <c r="A116" s="8">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H116" s="8"/>
+      <c r="B116" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H116" s="7"/>
     </row>
     <row r="117" s="4" customFormat="1" spans="1:8">
       <c r="A117" s="8">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>235</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
       <c r="H117" s="8"/>
     </row>
     <row r="118" s="4" customFormat="1" spans="1:8">
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H118" s="8"/>
+      <c r="B118" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" s="4" customFormat="1" spans="1:8">
       <c r="A119" s="8">
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E119" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>243</v>
+      </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
     </row>
     <row r="120" s="4" customFormat="1" spans="1:8">
-      <c r="A120" s="8">
+      <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
+      <c r="B120" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E120" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
     </row>
     <row r="121" s="4" customFormat="1" spans="1:8">
-      <c r="A121" s="7">
+      <c r="A121" s="8">
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>243</v>
+        <v>15</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E121" s="8">
+        <v>9789045678</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
     </row>
     <row r="122" s="4" customFormat="1" spans="1:8">
-      <c r="A122" s="8">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E122" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
+      <c r="D122" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E122" s="7">
+        <v>21331</v>
+      </c>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
     </row>
     <row r="123" s="4" customFormat="1" spans="1:8">
       <c r="A123" s="8">
@@ -4935,11 +4879,11 @@
       <c r="C123" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="12" t="s">
-        <v>244</v>
+      <c r="D123" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="E123" s="8">
-        <v>9789045678</v>
+        <v>97989898982</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
@@ -4949,103 +4893,97 @@
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C124" s="8" t="s">
+      <c r="B124" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E124" s="8">
-        <v>21331</v>
-      </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
+      <c r="D124" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
     </row>
     <row r="125" s="4" customFormat="1" spans="1:8">
       <c r="A125" s="8">
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D125" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E125" s="8">
-        <v>97989898982</v>
+      <c r="D125" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
     </row>
     <row r="126" s="4" customFormat="1" spans="1:8">
-      <c r="A126" s="8">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="E126" s="8" t="s">
+      <c r="D126" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" s="4" customFormat="1" spans="1:8">
-      <c r="A127" s="7">
+      <c r="A127" s="8">
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D127" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>249</v>
-      </c>
+      <c r="D127" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
     </row>
     <row r="128" s="4" customFormat="1" spans="1:8">
-      <c r="A128" s="8">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-    </row>
-    <row r="129" s="4" customFormat="1" spans="1:8">
+      <c r="B128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7">
+        <v>2</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -5053,467 +4991,457 @@
         <v>19</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>251</v>
+        <v>20</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
     </row>
-    <row r="130" s="4" customFormat="1" spans="1:8">
+    <row r="130" spans="1:8">
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8">
-        <v>2</v>
-      </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
+      <c r="B130" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8">
+        <v>4</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="8"/>
+    </row>
+    <row r="132" s="4" customFormat="1" spans="1:8">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="8">
-        <v>131</v>
-      </c>
-      <c r="B132" s="8" t="s">
+      <c r="C132" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" s="4" customFormat="1" spans="1:8">
+      <c r="A133" s="8">
+        <v>132</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8">
+        <v>4</v>
+      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+    </row>
+    <row r="134" s="4" customFormat="1" spans="1:8">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="7">
-        <v>132</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7">
-        <v>4</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" s="7"/>
-    </row>
-    <row r="134" s="4" customFormat="1" spans="1:8">
-      <c r="A134" s="8">
-        <v>133</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
+      <c r="C134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
     </row>
     <row r="135" s="4" customFormat="1" spans="1:8">
       <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7">
-        <v>4</v>
-      </c>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8">
+        <v>5</v>
+      </c>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" s="4" customFormat="1" spans="1:8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
+      <c r="C136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H136" s="7"/>
     </row>
     <row r="137" s="4" customFormat="1" spans="1:8">
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7">
-        <v>5</v>
-      </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8">
+        <v>3</v>
+      </c>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" s="4" customFormat="1" spans="1:8">
-      <c r="A138" s="8">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H138" s="8"/>
+      <c r="B138" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H138" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="139" s="4" customFormat="1" spans="1:8">
-      <c r="A139" s="7">
+      <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7">
-        <v>3</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-    </row>
-    <row r="140" s="4" customFormat="1" spans="1:8">
-      <c r="A140" s="8">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8">
+        <v>4</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H140" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" s="4" customFormat="1" spans="1:8">
+      <c r="B140" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7">
-        <v>4</v>
-      </c>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8">
+        <v>2</v>
+      </c>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="H142" s="8"/>
+      <c r="B142" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="8">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="7">
+        <v>145</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7">
-        <v>2</v>
-      </c>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="8">
-        <v>143</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H144" s="8"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="7">
-        <v>144</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="8">
-        <v>145</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="H146" s="8"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7">
+        <v>4</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="7" t="s">
+      <c r="B147" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" s="8"/>
+      <c r="F147" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="G147" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G147" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H147" s="7"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H148" s="8"/>
+      <c r="B148" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7">
+        <v>1</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="8">
         <v>148</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="7" t="s">
+      <c r="B149" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="7">
+        <v>149</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7">
+        <v>1</v>
+      </c>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="8">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G151" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="H151" s="8"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="7">
+        <v>151</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7">
+        <v>3</v>
+      </c>
+      <c r="F152" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="G152" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G149" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H149" s="7"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="8">
-        <v>149</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H150" s="8"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="7">
-        <v>150</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="8">
-        <v>151</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8">
-        <v>4</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" s="8"/>
+      <c r="H152" s="7"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="8">
@@ -5526,14 +5454,14 @@
         <v>20</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H153" s="8"/>
     </row>
@@ -5542,15 +5470,21 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7">
-        <v>1</v>
-      </c>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8">
@@ -5558,74 +5492,86 @@
         <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E155" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8">
+        <v>2</v>
+      </c>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="8">
+      <c r="A156" s="7">
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7">
-        <v>1</v>
-      </c>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="H156" s="7"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="7">
+      <c r="A157" s="8">
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E157" s="8"/>
+        <v>280</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="F157" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H157" s="8"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="8">
+      <c r="A158" s="7">
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="E158" s="7">
-        <v>3</v>
+        <v>9889656446</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>283</v>
+        <v>141</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -5637,17 +5583,17 @@
         <v>19</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G159" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="G159" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="H159" s="8"/>
     </row>
@@ -5656,20 +5602,18 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E160" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7">
+        <v>4</v>
+      </c>
       <c r="F160" s="7" t="s">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>289</v>
+        <v>91</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -5678,223 +5622,93 @@
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H161" s="8"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="7">
+        <v>161</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8">
-        <v>2</v>
-      </c>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="8">
-        <v>161</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="7" t="s">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7">
+        <v>5</v>
+      </c>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="8">
+        <v>162</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="G163" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F162" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H162" s="7"/>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="7">
-        <v>162</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>296</v>
-      </c>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="8">
+    <row r="164" spans="1:7">
+      <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E164" s="7">
-        <v>9889656446</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H164" s="7"/>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="8">
-        <v>164</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G165" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="H165" s="8"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="7">
-        <v>165</v>
-      </c>
-      <c r="B166" s="7" t="s">
+      <c r="B164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7">
-        <v>4</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H166" s="7"/>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="8">
-        <v>166</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H167" s="8"/>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="8">
-        <v>167</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7">
+      <c r="E164" s="4">
         <v>5</v>
       </c>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="7">
-        <v>168</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G169" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H169" s="8"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="8">
-        <v>169</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" s="4">
-        <v>5</v>
-      </c>
-      <c r="F170" s="4" t="s">
+      <c r="F164" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G170" s="4" t="s">
+      <c r="G164" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C94 C95 C109 C118 C140 C141 C1:C3 C7:C9 C14:C38 C39:C59 C60:C63 C64:C67 C88:C91 C92:C93 C96:C97 C107:C108 C110:C113 C114:C117 C119:C124 C125:C130 C134:C137 C138:C139 C170:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C92 C93 C107 C116 C138 C139 C1:C3 C7:C9 C13:C36 C37:C57 C58:C61 C62:C65 C86:C89 C90:C91 C94:C95 C105:C106 C108:C111 C112:C115 C117:C122 C123:C128 C132:C135 C136:C137 C164:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94 B118 B140 B1:B38 B39:B93 B95:B117 B119:B139 B141:B157 B158:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92 B116 B138 B1:B12 B13:B36 B37:B91 B93:B115 B117:B137 B139:B144 B145:B151 B152:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C130">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68:C70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C68">
       <formula1>DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5925,7 +5739,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5933,20 +5747,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5957,20 +5771,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5978,47 +5792,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6028,12 +5842,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6043,55 +5857,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6101,152 +5915,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6256,204 +6070,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6468,12 +6282,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
@@ -1254,7 +1254,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1276,9 +1298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1292,9 +1314,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,14 +1353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1323,18 +1360,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1354,37 +1384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,7 +1417,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,7 +1465,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,19 +1537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,49 +1555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,13 +1573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,55 +1591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,9 +1646,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1668,16 +1703,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1700,51 +1735,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1762,130 +1762,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2268,8 +2268,8 @@
   <sheetPr/>
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2807,7 +2807,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>39</v>
@@ -3011,7 +3011,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
@@ -3255,7 +3255,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>12</v>
@@ -3531,7 +3531,7 @@
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>12</v>
@@ -3569,7 +3569,7 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -4115,7 +4115,7 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>12</v>
@@ -4225,7 +4225,7 @@
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -5033,7 +5033,7 @@
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>12</v>
@@ -5071,7 +5071,7 @@
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
@@ -5143,7 +5143,7 @@
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
@@ -5319,7 +5319,7 @@
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>12</v>
@@ -5649,7 +5649,7 @@
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="20385" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393">
   <si>
     <t>Step No</t>
   </si>
@@ -374,12 +374,12 @@
     <t>CONTACT_PNONE_NUMBER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
     <t>APP_AUTHORIZE_PERSON</t>
   </si>
   <si>
@@ -993,9 +993,6 @@
   </si>
   <si>
     <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>SelectByValue</t>
@@ -1216,10 +1213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1247,7 +1244,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,61 +1358,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1331,62 +1380,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1411,7 +1408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,13 +1420,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,13 +1516,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,31 +1558,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,103 +1582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,20 +1643,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1688,6 +1674,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1699,21 +1694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1735,16 +1715,33 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1762,130 +1759,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2268,8 +2265,8 @@
   <sheetPr/>
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3208,16 +3205,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="8" t="s">
         <v>116</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -5900,12 +5897,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>322</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5915,152 +5912,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6070,62 +6067,62 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>305</v>
@@ -6133,12 +6130,12 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>305</v>
@@ -6146,27 +6143,27 @@
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>305</v>
@@ -6174,7 +6171,7 @@
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>305</v>
@@ -6182,92 +6179,92 @@
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6282,12 +6279,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7740"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390">
   <si>
     <t>Step No</t>
   </si>
@@ -515,9 +515,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t>APP_INS_TYPE</t>
   </si>
   <si>
-    <t>Medicare</t>
-  </si>
-  <si>
     <t>Insurance type selected</t>
   </si>
   <si>
@@ -729,9 +723,6 @@
   </si>
   <si>
     <t>PROV_ADDRESS_TYPE</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>selected</t>
@@ -1213,10 +1204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1244,15 +1235,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,6 +1271,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1290,44 +1324,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1341,29 +1348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1371,9 +1355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1381,6 +1364,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1408,13 +1399,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,7 +1471,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,13 +1513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,13 +1537,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,91 +1567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,25 +1579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,11 +1632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1655,6 +1652,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1677,38 +1689,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1738,10 +1720,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1759,130 +1750,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2265,8 +2256,8 @@
   <sheetPr/>
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3743,7 +3734,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>20</v>
@@ -3751,14 +3742,14 @@
       <c r="D69" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="8">
+        <v>1</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="G69" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -3773,16 +3764,16 @@
         <v>15</v>
       </c>
       <c r="D70" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -3791,22 +3782,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="E71" s="8">
+        <v>1</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>159</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H71" s="8"/>
     </row>
@@ -3821,16 +3812,16 @@
         <v>15</v>
       </c>
       <c r="D72" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -3845,16 +3836,16 @@
         <v>15</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E73" s="8">
         <v>1235647899</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H73" s="8"/>
     </row>
@@ -3869,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -3887,14 +3878,14 @@
         <v>20</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -3909,16 +3900,16 @@
         <v>15</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E76" s="7">
         <v>97890456789</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -3933,14 +3924,14 @@
         <v>20</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H77" s="8"/>
     </row>
@@ -3955,16 +3946,16 @@
         <v>20</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E78" s="7">
         <v>1230</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -3979,16 +3970,16 @@
         <v>20</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E79" s="8">
         <v>1550</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H79" s="8"/>
     </row>
@@ -4003,14 +3994,14 @@
         <v>20</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -4025,14 +4016,14 @@
         <v>20</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H81" s="8"/>
     </row>
@@ -4047,14 +4038,14 @@
         <v>20</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -4069,14 +4060,14 @@
         <v>20</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H83" s="8"/>
     </row>
@@ -4275,14 +4266,14 @@
         <v>20</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -4317,12 +4308,12 @@
         <v>15</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -4353,11 +4344,11 @@
         <v>20</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>35</v>
@@ -4391,13 +4382,13 @@
         <v>20</v>
       </c>
       <c r="D100" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>102</v>
@@ -4415,7 +4406,7 @@
         <v>15</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8" t="s">
@@ -4437,14 +4428,14 @@
         <v>15</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H102" s="7"/>
     </row>
@@ -4459,14 +4450,14 @@
         <v>15</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H103" s="8"/>
     </row>
@@ -4501,7 +4492,7 @@
         <v>20</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
@@ -4535,7 +4526,7 @@
         <v>20</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8" t="s">
@@ -4557,7 +4548,7 @@
         <v>20</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7" t="s">
@@ -4573,20 +4564,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H109" s="8"/>
     </row>
@@ -4601,14 +4592,14 @@
         <v>20</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -4617,20 +4608,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H111" s="8"/>
     </row>
@@ -4645,11 +4636,11 @@
         <v>20</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>35</v>
@@ -4667,11 +4658,11 @@
         <v>20</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G113" s="8" t="s">
         <v>35</v>
@@ -4689,11 +4680,11 @@
         <v>20</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>35</v>
@@ -4705,22 +4696,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
+      </c>
+      <c r="E115" s="8">
+        <v>1</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>94</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H115" s="8"/>
     </row>
@@ -4735,13 +4726,13 @@
         <v>20</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>131</v>
@@ -4759,7 +4750,7 @@
         <v>15</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
@@ -4777,10 +4768,10 @@
         <v>20</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -4797,10 +4788,10 @@
         <v>20</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
@@ -4837,7 +4828,7 @@
         <v>15</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E121" s="8">
         <v>9789045678</v>
@@ -4857,7 +4848,7 @@
         <v>15</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E122" s="7">
         <v>21331</v>
@@ -4877,7 +4868,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E123" s="8">
         <v>97989898982</v>
@@ -4897,7 +4888,7 @@
         <v>15</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>143</v>
@@ -4917,10 +4908,10 @@
         <v>15</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
@@ -4937,7 +4928,7 @@
         <v>15</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>143</v>
@@ -4957,7 +4948,7 @@
         <v>15</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
@@ -4991,7 +4982,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -5193,16 +5184,16 @@
         <v>20</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -5216,7 +5207,7 @@
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
@@ -5233,10 +5224,10 @@
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -5251,14 +5242,14 @@
         <v>20</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -5273,14 +5264,14 @@
         <v>20</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5337,14 +5328,14 @@
         <v>20</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5375,7 +5366,7 @@
         <v>20</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
@@ -5409,14 +5400,14 @@
         <v>20</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H151" s="8"/>
     </row>
@@ -5433,10 +5424,10 @@
         <v>3</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -5451,14 +5442,14 @@
         <v>20</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H153" s="8"/>
     </row>
@@ -5473,14 +5464,14 @@
         <v>20</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -5511,16 +5502,16 @@
         <v>15</v>
       </c>
       <c r="D156" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -5535,16 +5526,16 @@
         <v>15</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H157" s="8"/>
     </row>
@@ -5559,7 +5550,7 @@
         <v>15</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E158" s="7">
         <v>9889656446</v>
@@ -5583,14 +5574,14 @@
         <v>15</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H159" s="8"/>
     </row>
@@ -5625,14 +5616,14 @@
         <v>20</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H161" s="8"/>
     </row>
@@ -5663,14 +5654,14 @@
         <v>20</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H163" s="8"/>
     </row>
@@ -5696,11 +5687,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C92 C93 C107 C116 C138 C139 C1:C3 C7:C9 C13:C36 C37:C57 C58:C61 C62:C65 C86:C89 C90:C91 C94:C95 C105:C106 C108:C111 C112:C115 C117:C122 C123:C128 C132:C135 C136:C137 C164:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71 B92 B116 B138 B1:B12 B13:B36 B37:B70 B72:B91 B93:B115 B117:B137 B139:B144 B145:B151 B152:B1048576">
+      <formula1>DataList!$C$2:$C$109</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84">
       <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92 B116 B138 B1:B12 B13:B36 B37:B91 B93:B115 B117:B137 B139:B144 B145:B151 B152:B1048576">
-      <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C130">
       <formula1>[1]DataList!#REF!</formula1>
@@ -5736,7 +5727,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5744,20 +5735,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5768,20 +5759,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5789,47 +5780,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5839,12 +5830,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5854,45 +5845,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5902,7 +5893,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5912,152 +5903,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6067,204 +6058,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6279,17 +6270,17 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
@@ -161,7 +161,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>NewFundV</t>
+    <t>Breast Cancer Silo*</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1205,9 +1205,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1234,22 +1234,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1271,45 +1265,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1319,14 +1283,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1348,8 +1304,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,19 +1364,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1399,13 +1399,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,37 +1453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,7 +1471,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,73 +1501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,13 +1513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,7 +1531,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,6 +1633,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1651,7 +1690,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,21 +1706,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1705,34 +1729,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1750,130 +1750,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2256,8 +2256,8 @@
   <sheetPr/>
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1205,9 +1205,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1234,16 +1234,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,26 +1263,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1290,7 +1296,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,6 +1305,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,36 +1341,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1351,28 +1356,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1399,7 +1399,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,43 +1453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,7 +1477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,13 +1495,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,13 +1549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,73 +1573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,6 +1632,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1643,15 +1661,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,15 +1695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1712,15 +1712,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1729,10 +1720,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1750,130 +1750,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2257,7 +2257,7 @@
   <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2391,7 +2391,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_ViewIncomplete.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00821D3-4D31-47DD-BC85-513938EF55E3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="389">
   <si>
     <t>Step No</t>
   </si>
@@ -741,9 +747,6 @@
   </si>
   <si>
     <t>ADD_PROV_PATIENT_STATE</t>
-  </si>
-  <si>
-    <t>Alaska</t>
   </si>
   <si>
     <t>ADD_PROV_CITY</t>
@@ -1202,14 +1205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1233,152 +1230,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1393,198 +1246,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1594,29 +1261,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1624,258 +1291,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1888,68 +1313,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1964,7 +1345,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1979,18 +1360,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="LocateBy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C102" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C102" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2248,29 +1629,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4113,7 +3494,7 @@
       </c>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" s="4" customFormat="1" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -4131,7 +3512,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" s="4" customFormat="1" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -4147,7 +3528,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" s="4" customFormat="1" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -4165,7 +3546,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" s="4" customFormat="1" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -4181,7 +3562,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" s="4" customFormat="1" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -4203,7 +3584,7 @@
       </c>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" s="4" customFormat="1" spans="1:8">
+    <row r="91" spans="1:8">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -4219,7 +3600,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" s="4" customFormat="1" spans="1:8">
+    <row r="92" spans="1:8">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -4239,7 +3620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" s="4" customFormat="1" spans="1:8">
+    <row r="93" spans="1:8">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -4255,7 +3636,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" s="4" customFormat="1" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -4277,7 +3658,7 @@
       </c>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" s="4" customFormat="1" spans="1:8">
+    <row r="95" spans="1:8">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -4297,7 +3678,7 @@
       </c>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" s="4" customFormat="1" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -4317,7 +3698,7 @@
       </c>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" s="4" customFormat="1" spans="1:8">
+    <row r="97" spans="1:8">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -4333,7 +3714,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" s="4" customFormat="1" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -4355,7 +3736,7 @@
       </c>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" s="4" customFormat="1" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -4371,7 +3752,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" s="4" customFormat="1" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -4395,7 +3776,7 @@
       </c>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" s="4" customFormat="1" spans="1:8">
+    <row r="101" spans="1:8">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -4417,7 +3798,7 @@
       </c>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" s="4" customFormat="1" spans="1:8">
+    <row r="102" spans="1:8">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -4439,7 +3820,7 @@
       </c>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" s="4" customFormat="1" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -4461,7 +3842,7 @@
       </c>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" s="4" customFormat="1" spans="1:8">
+    <row r="104" spans="1:8">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -4481,7 +3862,7 @@
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" s="4" customFormat="1" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -4499,7 +3880,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" s="4" customFormat="1" spans="1:8">
+    <row r="106" spans="1:8">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -4515,7 +3896,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" s="4" customFormat="1" spans="1:8">
+    <row r="107" spans="1:8">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -4537,7 +3918,7 @@
       </c>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" s="4" customFormat="1" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -4559,7 +3940,7 @@
       </c>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" s="4" customFormat="1" spans="1:8">
+    <row r="109" spans="1:8">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -4581,7 +3962,7 @@
       </c>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" s="4" customFormat="1" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -4603,7 +3984,7 @@
       </c>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" s="4" customFormat="1" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -4625,7 +4006,7 @@
       </c>
       <c r="H111" s="8"/>
     </row>
-    <row r="112" s="4" customFormat="1" spans="1:8">
+    <row r="112" spans="1:8">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -4647,7 +4028,7 @@
       </c>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" s="4" customFormat="1" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -4669,7 +4050,7 @@
       </c>
       <c r="H113" s="8"/>
     </row>
-    <row r="114" s="4" customFormat="1" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -4691,7 +4072,7 @@
       </c>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" s="4" customFormat="1" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -4715,7 +4096,7 @@
       </c>
       <c r="H115" s="8"/>
     </row>
-    <row r="116" s="4" customFormat="1" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -4739,7 +4120,7 @@
       </c>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" s="4" customFormat="1" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -4757,12 +4138,12 @@
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" s="4" customFormat="1" spans="1:8">
+    <row r="118" spans="1:8">
       <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>20</v>
@@ -4770,14 +4151,14 @@
       <c r="D118" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>238</v>
+      <c r="E118" s="7">
+        <v>1</v>
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" s="4" customFormat="1" spans="1:8">
+    <row r="119" spans="1:8">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -4788,16 +4169,16 @@
         <v>20</v>
       </c>
       <c r="D119" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" s="4" customFormat="1" spans="1:8">
+    <row r="120" spans="1:8">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -4817,7 +4198,7 @@
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" s="4" customFormat="1" spans="1:8">
+    <row r="121" spans="1:8">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -4828,7 +4209,7 @@
         <v>15</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E121" s="8">
         <v>9789045678</v>
@@ -4837,7 +4218,7 @@
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" s="4" customFormat="1" spans="1:8">
+    <row r="122" spans="1:8">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -4848,7 +4229,7 @@
         <v>15</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E122" s="7">
         <v>21331</v>
@@ -4857,7 +4238,7 @@
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" s="4" customFormat="1" spans="1:8">
+    <row r="123" spans="1:8">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -4868,7 +4249,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E123" s="8">
         <v>97989898982</v>
@@ -4877,7 +4258,7 @@
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" s="4" customFormat="1" spans="1:8">
+    <row r="124" spans="1:8">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -4888,7 +4269,7 @@
         <v>15</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>143</v>
@@ -4897,7 +4278,7 @@
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" s="4" customFormat="1" spans="1:8">
+    <row r="125" spans="1:8">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -4908,16 +4289,16 @@
         <v>15</v>
       </c>
       <c r="D125" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" s="4" customFormat="1" spans="1:8">
+    <row r="126" spans="1:8">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -4928,7 +4309,7 @@
         <v>15</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>143</v>
@@ -4937,7 +4318,7 @@
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" s="4" customFormat="1" spans="1:8">
+    <row r="127" spans="1:8">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -4948,14 +4329,14 @@
         <v>15</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" s="4" customFormat="1" spans="1:8">
+    <row r="128" spans="1:8">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -4982,7 +4363,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -5031,7 +4412,7 @@
       </c>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" s="4" customFormat="1" spans="1:8">
+    <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -5049,7 +4430,7 @@
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" s="4" customFormat="1" spans="1:8">
+    <row r="133" spans="1:8">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -5065,7 +4446,7 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" s="4" customFormat="1" spans="1:8">
+    <row r="134" spans="1:8">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -5083,7 +4464,7 @@
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" s="4" customFormat="1" spans="1:8">
+    <row r="135" spans="1:8">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -5099,7 +4480,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" s="4" customFormat="1" spans="1:8">
+    <row r="136" spans="1:8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -5121,7 +4502,7 @@
       </c>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" s="4" customFormat="1" spans="1:8">
+    <row r="137" spans="1:8">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -5137,7 +4518,7 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" s="4" customFormat="1" spans="1:8">
+    <row r="138" spans="1:8">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -5157,7 +4538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" s="4" customFormat="1" spans="1:8">
+    <row r="139" spans="1:8">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -5184,16 +4565,16 @@
         <v>20</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>155</v>
       </c>
       <c r="F140" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -5224,10 +4605,10 @@
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -5242,14 +4623,14 @@
         <v>20</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G143" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -5268,10 +4649,10 @@
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5328,14 +4709,14 @@
         <v>20</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G147" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5366,7 +4747,7 @@
         <v>20</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
@@ -5400,14 +4781,14 @@
         <v>20</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G151" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="G151" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="H151" s="8"/>
     </row>
@@ -5424,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -5442,14 +4823,14 @@
         <v>20</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G153" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="H153" s="8"/>
     </row>
@@ -5464,14 +4845,14 @@
         <v>20</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -5502,16 +4883,16 @@
         <v>15</v>
       </c>
       <c r="D156" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E156" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="F156" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F156" s="7" t="s">
+      <c r="G156" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -5526,16 +4907,16 @@
         <v>15</v>
       </c>
       <c r="D157" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F157" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E157" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F157" s="8" t="s">
+      <c r="G157" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="H157" s="8"/>
     </row>
@@ -5550,7 +4931,7 @@
         <v>15</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E158" s="7">
         <v>9889656446</v>
@@ -5574,14 +4955,14 @@
         <v>15</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G159" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="G159" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="H159" s="8"/>
     </row>
@@ -5616,14 +4997,14 @@
         <v>20</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G161" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="H161" s="8"/>
     </row>
@@ -5654,18 +5035,18 @@
         <v>20</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G163" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G163" s="8" t="s">
-        <v>288</v>
-      </c>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:8">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -5683,372 +5064,389 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C92 C93 C107 C116 C138 C139 C1:C3 C7:C9 C13:C36 C37:C57 C58:C61 C62:C65 C86:C89 C90:C91 C94:C95 C105:C106 C108:C111 C112:C115 C117:C122 C123:C128 C132:C135 C136:C137 C164:C1048576">
-      <formula1>DataList!$A$2:$A$11</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71 B92 B116 B138 B1:B12 B13:B36 B37:B70 B72:B91 B93:B115 B117:B137 B139:B144 B145:B151 B152:B1048576">
-      <formula1>DataList!$C$2:$C$109</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C130">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C68">
-      <formula1>DataList!#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>DataList!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4 C5 C6 C10 C11 C12 C92 C93 C107 C116 C138 C139 C1:C3 C7:C9 C13:C36 C37:C57 C58:C61 C62:C65 C86:C89 C90:C91 C94:C95 C105:C106 C108:C111 C112:C115 C117:C122 C123:C128 C132:C135 C136:C137 C164:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>DataList!$C$2:$C$109</xm:f>
+          </x14:formula1>
+          <xm:sqref>B71 B92 B116 B138 B1:B12 B13:B36 B37:B70 B72:B91 B93:B115 B117:B137 B139:B144 B145:B151 B152:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive_PCase.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C84</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C130</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C66:C68</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>291</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>293</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>295</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>297</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" t="s">
         <v>298</v>
-      </c>
-      <c r="C8" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>303</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>305</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>316</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6058,204 +5456,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>361</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>363</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>369</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6270,12 +5668,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="3:3">
@@ -6285,16 +5683,15 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C101" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$C$2:$C$101</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
